--- a/lcmo.xlsx
+++ b/lcmo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t xml:space="preserve">生产旬</t>
   </si>
@@ -719,18 +719,6 @@
     <t xml:space="preserve">2021-04-06</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE201C127 G01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">轿顶站涂装指示图</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYGM77015</t>
-  </si>
-  <si>
     <t xml:space="preserve">NX200A724 G11
 NX200A724 G15
 NX200A724 G18
@@ -738,7 +726,15 @@
 NX200A724 G23
 NX200A724 G32
 NX200A724 G41
+SE201C127 G01
 NX200A724 G52 L11060709132599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轿顶站涂装指示图
+轿顶站组件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYGM77015</t>
   </si>
   <si>
     <t xml:space="preserve">EYGM87261</t>
@@ -5947,16 +5943,16 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
         <v>166</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>167</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>168</v>
-      </c>
-      <c r="H129" t="s">
-        <v>169</v>
       </c>
       <c r="I129" t="s">
         <v>38</v>
@@ -5982,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
         <v>16</v>
@@ -6020,7 +6016,7 @@
         <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I131" t="s">
         <v>38</v>
@@ -6052,7 +6048,7 @@
         <v>16</v>
       </c>
       <c r="H132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I132" t="s">
         <v>38</v>
@@ -6084,7 +6080,7 @@
         <v>16</v>
       </c>
       <c r="H133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I133" t="s">
         <v>38</v>
@@ -6116,7 +6112,7 @@
         <v>16</v>
       </c>
       <c r="H134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I134" t="s">
         <v>38</v>
@@ -6139,10 +6135,10 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="G135" t="s">
         <v>16</v>
@@ -6171,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
         <v>176</v>
@@ -6180,7 +6176,7 @@
         <v>16</v>
       </c>
       <c r="H136" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I136" t="s">
         <v>38</v>
@@ -6203,16 +6199,16 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F137" t="s">
+        <v>177</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
         <v>178</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" t="s">
-        <v>177</v>
       </c>
       <c r="I137" t="s">
         <v>38</v>
@@ -6235,16 +6231,16 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G138" t="s">
         <v>16</v>
       </c>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I138" t="s">
         <v>38</v>
@@ -6270,13 +6266,13 @@
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G139" t="s">
         <v>16</v>
       </c>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I139" t="s">
         <v>38</v>
@@ -6308,7 +6304,7 @@
         <v>16</v>
       </c>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I140" t="s">
         <v>38</v>
@@ -6340,7 +6336,7 @@
         <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I141" t="s">
         <v>38</v>
@@ -6372,7 +6368,7 @@
         <v>16</v>
       </c>
       <c r="H142" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I142" t="s">
         <v>38</v>
@@ -6404,7 +6400,7 @@
         <v>16</v>
       </c>
       <c r="H143" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I143" t="s">
         <v>38</v>
@@ -6436,7 +6432,7 @@
         <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I144" t="s">
         <v>38</v>
@@ -6450,7 +6446,7 @@
         <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -6468,10 +6464,10 @@
         <v>16</v>
       </c>
       <c r="H145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I145" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -6500,7 +6496,7 @@
         <v>16</v>
       </c>
       <c r="H146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I146" t="s">
         <v>67</v>
@@ -6532,7 +6528,7 @@
         <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I147" t="s">
         <v>67</v>
@@ -6555,16 +6551,16 @@
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="G148" t="s">
         <v>16</v>
       </c>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I148" t="s">
         <v>67</v>
@@ -6587,16 +6583,16 @@
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G149" t="s">
         <v>16</v>
       </c>
       <c r="H149" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I149" t="s">
         <v>67</v>
@@ -6619,16 +6615,16 @@
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F150" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
       </c>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I150" t="s">
         <v>67</v>
@@ -6651,16 +6647,16 @@
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G151" t="s">
         <v>16</v>
       </c>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I151" t="s">
         <v>67</v>
@@ -6683,16 +6679,16 @@
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F152" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G152" t="s">
         <v>16</v>
       </c>
       <c r="H152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I152" t="s">
         <v>67</v>
@@ -6715,16 +6711,16 @@
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
       </c>
       <c r="H153" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I153" t="s">
         <v>67</v>
@@ -6747,16 +6743,16 @@
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F154" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G154" t="s">
         <v>16</v>
       </c>
       <c r="H154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I154" t="s">
         <v>67</v>
@@ -6779,16 +6775,16 @@
         <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G155" t="s">
         <v>16</v>
       </c>
       <c r="H155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I155" t="s">
         <v>67</v>
@@ -6811,16 +6807,16 @@
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F156" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G156" t="s">
         <v>16</v>
       </c>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I156" t="s">
         <v>67</v>
@@ -6843,16 +6839,16 @@
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G157" t="s">
         <v>16</v>
       </c>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I157" t="s">
         <v>67</v>
@@ -6875,16 +6871,16 @@
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F158" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G158" t="s">
         <v>16</v>
       </c>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I158" t="s">
         <v>67</v>
@@ -6907,16 +6903,16 @@
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G159" t="s">
         <v>16</v>
       </c>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I159" t="s">
         <v>67</v>
@@ -6939,16 +6935,16 @@
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G160" t="s">
         <v>16</v>
       </c>
       <c r="H160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I160" t="s">
         <v>67</v>
@@ -6971,16 +6967,16 @@
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G161" t="s">
         <v>16</v>
       </c>
       <c r="H161" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I161" t="s">
         <v>67</v>
@@ -7003,16 +6999,16 @@
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F162" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G162" t="s">
         <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I162" t="s">
         <v>67</v>
@@ -7035,16 +7031,16 @@
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G163" t="s">
         <v>16</v>
       </c>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I163" t="s">
         <v>67</v>
@@ -7058,7 +7054,7 @@
         <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
@@ -7067,10 +7063,10 @@
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F164" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G164" t="s">
         <v>16</v>
@@ -7079,7 +7075,7 @@
         <v>197</v>
       </c>
       <c r="I164" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -7090,28 +7086,28 @@
         <v>25</v>
       </c>
       <c r="B165" t="s">
+        <v>196</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>131</v>
+      </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s">
+        <v>197</v>
+      </c>
+      <c r="I165" t="s">
         <v>198</v>
-      </c>
-      <c r="C165" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" t="s">
-        <v>108</v>
-      </c>
-      <c r="F165" t="s">
-        <v>179</v>
-      </c>
-      <c r="G165" t="s">
-        <v>16</v>
-      </c>
-      <c r="H165" t="s">
-        <v>199</v>
-      </c>
-      <c r="I165" t="s">
-        <v>200</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -7122,7 +7118,7 @@
         <v>25</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -7131,10 +7127,10 @@
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F166" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G166" t="s">
         <v>16</v>
@@ -7143,7 +7139,7 @@
         <v>199</v>
       </c>
       <c r="I166" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -7154,28 +7150,28 @@
         <v>25</v>
       </c>
       <c r="B167" t="s">
+        <v>196</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>131</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s">
+        <v>199</v>
+      </c>
+      <c r="I167" t="s">
         <v>198</v>
-      </c>
-      <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" t="s">
-        <v>108</v>
-      </c>
-      <c r="F167" t="s">
-        <v>179</v>
-      </c>
-      <c r="G167" t="s">
-        <v>16</v>
-      </c>
-      <c r="H167" t="s">
-        <v>201</v>
-      </c>
-      <c r="I167" t="s">
-        <v>200</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -7186,28 +7182,28 @@
         <v>25</v>
       </c>
       <c r="B168" t="s">
+        <v>196</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>108</v>
+      </c>
+      <c r="F168" t="s">
+        <v>177</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>200</v>
+      </c>
+      <c r="I168" t="s">
         <v>198</v>
-      </c>
-      <c r="C168" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" t="s">
-        <v>131</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
-      <c r="H168" t="s">
-        <v>201</v>
-      </c>
-      <c r="I168" t="s">
-        <v>200</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -7218,28 +7214,28 @@
         <v>25</v>
       </c>
       <c r="B169" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>131</v>
+      </c>
+      <c r="G169" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s">
+        <v>200</v>
+      </c>
+      <c r="I169" t="s">
         <v>198</v>
-      </c>
-      <c r="C169" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" t="s">
-        <v>108</v>
-      </c>
-      <c r="F169" t="s">
-        <v>179</v>
-      </c>
-      <c r="G169" t="s">
-        <v>16</v>
-      </c>
-      <c r="H169" t="s">
-        <v>202</v>
-      </c>
-      <c r="I169" t="s">
-        <v>200</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -7250,28 +7246,28 @@
         <v>25</v>
       </c>
       <c r="B170" t="s">
+        <v>196</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>108</v>
+      </c>
+      <c r="F170" t="s">
+        <v>177</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s">
+        <v>201</v>
+      </c>
+      <c r="I170" t="s">
         <v>198</v>
-      </c>
-      <c r="C170" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" t="s">
-        <v>131</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
-      </c>
-      <c r="H170" t="s">
-        <v>202</v>
-      </c>
-      <c r="I170" t="s">
-        <v>200</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -7282,28 +7278,28 @@
         <v>25</v>
       </c>
       <c r="B171" t="s">
+        <v>196</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>131</v>
+      </c>
+      <c r="G171" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s">
+        <v>201</v>
+      </c>
+      <c r="I171" t="s">
         <v>198</v>
-      </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" t="s">
-        <v>108</v>
-      </c>
-      <c r="F171" t="s">
-        <v>179</v>
-      </c>
-      <c r="G171" t="s">
-        <v>16</v>
-      </c>
-      <c r="H171" t="s">
-        <v>203</v>
-      </c>
-      <c r="I171" t="s">
-        <v>200</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -7314,28 +7310,28 @@
         <v>25</v>
       </c>
       <c r="B172" t="s">
+        <v>196</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>108</v>
+      </c>
+      <c r="F172" t="s">
+        <v>177</v>
+      </c>
+      <c r="G172" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s">
+        <v>202</v>
+      </c>
+      <c r="I172" t="s">
         <v>198</v>
-      </c>
-      <c r="C172" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" t="s">
-        <v>131</v>
-      </c>
-      <c r="G172" t="s">
-        <v>16</v>
-      </c>
-      <c r="H172" t="s">
-        <v>203</v>
-      </c>
-      <c r="I172" t="s">
-        <v>200</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -7346,28 +7342,28 @@
         <v>25</v>
       </c>
       <c r="B173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>131</v>
+      </c>
+      <c r="G173" t="s">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s">
+        <v>202</v>
+      </c>
+      <c r="I173" t="s">
         <v>198</v>
-      </c>
-      <c r="C173" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" t="s">
-        <v>108</v>
-      </c>
-      <c r="F173" t="s">
-        <v>179</v>
-      </c>
-      <c r="G173" t="s">
-        <v>16</v>
-      </c>
-      <c r="H173" t="s">
-        <v>204</v>
-      </c>
-      <c r="I173" t="s">
-        <v>200</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -7378,28 +7374,28 @@
         <v>25</v>
       </c>
       <c r="B174" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>108</v>
+      </c>
+      <c r="F174" t="s">
+        <v>177</v>
+      </c>
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s">
+        <v>203</v>
+      </c>
+      <c r="I174" t="s">
         <v>198</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" t="s">
-        <v>131</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
-      <c r="H174" t="s">
-        <v>204</v>
-      </c>
-      <c r="I174" t="s">
-        <v>200</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -7410,28 +7406,28 @@
         <v>25</v>
       </c>
       <c r="B175" t="s">
+        <v>196</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>131</v>
+      </c>
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>203</v>
+      </c>
+      <c r="I175" t="s">
         <v>198</v>
-      </c>
-      <c r="C175" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175" t="s">
-        <v>108</v>
-      </c>
-      <c r="F175" t="s">
-        <v>179</v>
-      </c>
-      <c r="G175" t="s">
-        <v>16</v>
-      </c>
-      <c r="H175" t="s">
-        <v>205</v>
-      </c>
-      <c r="I175" t="s">
-        <v>200</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -7442,28 +7438,28 @@
         <v>25</v>
       </c>
       <c r="B176" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>108</v>
+      </c>
+      <c r="F176" t="s">
+        <v>177</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s">
+        <v>204</v>
+      </c>
+      <c r="I176" t="s">
         <v>198</v>
-      </c>
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" t="s">
-        <v>13</v>
-      </c>
-      <c r="E176" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" t="s">
-        <v>131</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
-      <c r="H176" t="s">
-        <v>205</v>
-      </c>
-      <c r="I176" t="s">
-        <v>200</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -7474,28 +7470,28 @@
         <v>25</v>
       </c>
       <c r="B177" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>131</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" t="s">
+        <v>204</v>
+      </c>
+      <c r="I177" t="s">
         <v>198</v>
-      </c>
-      <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" t="s">
-        <v>13</v>
-      </c>
-      <c r="E177" t="s">
-        <v>108</v>
-      </c>
-      <c r="F177" t="s">
-        <v>179</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
-      <c r="H177" t="s">
-        <v>206</v>
-      </c>
-      <c r="I177" t="s">
-        <v>200</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -7506,28 +7502,28 @@
         <v>25</v>
       </c>
       <c r="B178" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>108</v>
+      </c>
+      <c r="F178" t="s">
+        <v>177</v>
+      </c>
+      <c r="G178" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s">
+        <v>205</v>
+      </c>
+      <c r="I178" t="s">
         <v>198</v>
-      </c>
-      <c r="C178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178" t="s">
-        <v>131</v>
-      </c>
-      <c r="G178" t="s">
-        <v>16</v>
-      </c>
-      <c r="H178" t="s">
-        <v>206</v>
-      </c>
-      <c r="I178" t="s">
-        <v>200</v>
       </c>
       <c r="J178" t="n">
         <v>1</v>
@@ -7538,28 +7534,28 @@
         <v>25</v>
       </c>
       <c r="B179" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>131</v>
+      </c>
+      <c r="G179" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
         <v>198</v>
-      </c>
-      <c r="C179" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" t="s">
-        <v>13</v>
-      </c>
-      <c r="E179" t="s">
-        <v>108</v>
-      </c>
-      <c r="F179" t="s">
-        <v>179</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
-      </c>
-      <c r="H179" t="s">
-        <v>207</v>
-      </c>
-      <c r="I179" t="s">
-        <v>200</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
@@ -7570,28 +7566,28 @@
         <v>25</v>
       </c>
       <c r="B180" t="s">
+        <v>196</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>108</v>
+      </c>
+      <c r="F180" t="s">
+        <v>177</v>
+      </c>
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s">
+        <v>206</v>
+      </c>
+      <c r="I180" t="s">
         <v>198</v>
-      </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>13</v>
-      </c>
-      <c r="E180" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" t="s">
-        <v>131</v>
-      </c>
-      <c r="G180" t="s">
-        <v>16</v>
-      </c>
-      <c r="H180" t="s">
-        <v>207</v>
-      </c>
-      <c r="I180" t="s">
-        <v>200</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -7602,28 +7598,28 @@
         <v>25</v>
       </c>
       <c r="B181" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>131</v>
+      </c>
+      <c r="G181" t="s">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s">
+        <v>206</v>
+      </c>
+      <c r="I181" t="s">
         <v>198</v>
-      </c>
-      <c r="C181" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" t="s">
-        <v>13</v>
-      </c>
-      <c r="E181" t="s">
-        <v>108</v>
-      </c>
-      <c r="F181" t="s">
-        <v>179</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
-      <c r="H181" t="s">
-        <v>208</v>
-      </c>
-      <c r="I181" t="s">
-        <v>200</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -7634,28 +7630,28 @@
         <v>25</v>
       </c>
       <c r="B182" t="s">
+        <v>196</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>108</v>
+      </c>
+      <c r="F182" t="s">
+        <v>177</v>
+      </c>
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s">
+        <v>207</v>
+      </c>
+      <c r="I182" t="s">
         <v>198</v>
-      </c>
-      <c r="C182" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" t="s">
-        <v>131</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
-      <c r="H182" t="s">
-        <v>208</v>
-      </c>
-      <c r="I182" t="s">
-        <v>200</v>
       </c>
       <c r="J182" t="n">
         <v>1</v>
@@ -7666,28 +7662,28 @@
         <v>25</v>
       </c>
       <c r="B183" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" t="s">
+        <v>131</v>
+      </c>
+      <c r="G183" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s">
+        <v>207</v>
+      </c>
+      <c r="I183" t="s">
         <v>198</v>
-      </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" t="s">
-        <v>108</v>
-      </c>
-      <c r="F183" t="s">
-        <v>179</v>
-      </c>
-      <c r="G183" t="s">
-        <v>16</v>
-      </c>
-      <c r="H183" t="s">
-        <v>209</v>
-      </c>
-      <c r="I183" t="s">
-        <v>200</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -7698,28 +7694,28 @@
         <v>25</v>
       </c>
       <c r="B184" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>108</v>
+      </c>
+      <c r="F184" t="s">
+        <v>177</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
+        <v>208</v>
+      </c>
+      <c r="I184" t="s">
         <v>198</v>
-      </c>
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" t="s">
-        <v>13</v>
-      </c>
-      <c r="E184" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" t="s">
-        <v>131</v>
-      </c>
-      <c r="G184" t="s">
-        <v>16</v>
-      </c>
-      <c r="H184" t="s">
-        <v>209</v>
-      </c>
-      <c r="I184" t="s">
-        <v>200</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -7730,28 +7726,28 @@
         <v>25</v>
       </c>
       <c r="B185" t="s">
+        <v>196</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>131</v>
+      </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s">
+        <v>208</v>
+      </c>
+      <c r="I185" t="s">
         <v>198</v>
-      </c>
-      <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" t="s">
-        <v>108</v>
-      </c>
-      <c r="F185" t="s">
-        <v>179</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
-      <c r="H185" t="s">
-        <v>210</v>
-      </c>
-      <c r="I185" t="s">
-        <v>200</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -7762,28 +7758,28 @@
         <v>25</v>
       </c>
       <c r="B186" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>108</v>
+      </c>
+      <c r="F186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s">
+        <v>209</v>
+      </c>
+      <c r="I186" t="s">
         <v>198</v>
-      </c>
-      <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" t="s">
-        <v>131</v>
-      </c>
-      <c r="G186" t="s">
-        <v>16</v>
-      </c>
-      <c r="H186" t="s">
-        <v>210</v>
-      </c>
-      <c r="I186" t="s">
-        <v>200</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
@@ -7794,28 +7790,28 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
+        <v>196</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>131</v>
+      </c>
+      <c r="G187" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s">
+        <v>209</v>
+      </c>
+      <c r="I187" t="s">
         <v>198</v>
-      </c>
-      <c r="C187" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" t="s">
-        <v>108</v>
-      </c>
-      <c r="F187" t="s">
-        <v>179</v>
-      </c>
-      <c r="G187" t="s">
-        <v>16</v>
-      </c>
-      <c r="H187" t="s">
-        <v>211</v>
-      </c>
-      <c r="I187" t="s">
-        <v>200</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -7826,28 +7822,28 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
+        <v>196</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>108</v>
+      </c>
+      <c r="F188" t="s">
+        <v>177</v>
+      </c>
+      <c r="G188" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" t="s">
+        <v>210</v>
+      </c>
+      <c r="I188" t="s">
         <v>198</v>
-      </c>
-      <c r="C188" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" t="s">
-        <v>131</v>
-      </c>
-      <c r="G188" t="s">
-        <v>16</v>
-      </c>
-      <c r="H188" t="s">
-        <v>211</v>
-      </c>
-      <c r="I188" t="s">
-        <v>200</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -7858,28 +7854,28 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>131</v>
+      </c>
+      <c r="G189" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s">
+        <v>210</v>
+      </c>
+      <c r="I189" t="s">
         <v>198</v>
-      </c>
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" t="s">
-        <v>108</v>
-      </c>
-      <c r="F189" t="s">
-        <v>179</v>
-      </c>
-      <c r="G189" t="s">
-        <v>16</v>
-      </c>
-      <c r="H189" t="s">
-        <v>212</v>
-      </c>
-      <c r="I189" t="s">
-        <v>200</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -7890,28 +7886,28 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
+        <v>196</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>108</v>
+      </c>
+      <c r="F190" t="s">
+        <v>177</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
+        <v>211</v>
+      </c>
+      <c r="I190" t="s">
         <v>198</v>
-      </c>
-      <c r="C190" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" t="s">
-        <v>131</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" t="s">
-        <v>212</v>
-      </c>
-      <c r="I190" t="s">
-        <v>200</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7922,28 +7918,28 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>131</v>
+      </c>
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>211</v>
+      </c>
+      <c r="I191" t="s">
         <v>198</v>
-      </c>
-      <c r="C191" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" t="s">
-        <v>13</v>
-      </c>
-      <c r="E191" t="s">
-        <v>108</v>
-      </c>
-      <c r="F191" t="s">
-        <v>179</v>
-      </c>
-      <c r="G191" t="s">
-        <v>16</v>
-      </c>
-      <c r="H191" t="s">
-        <v>213</v>
-      </c>
-      <c r="I191" t="s">
-        <v>200</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
@@ -7954,7 +7950,7 @@
         <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
@@ -7966,16 +7962,16 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G192" t="s">
         <v>16</v>
       </c>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I192" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -8004,7 +8000,7 @@
         <v>16</v>
       </c>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I193" t="s">
         <v>38</v>
@@ -8036,7 +8032,7 @@
         <v>16</v>
       </c>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I194" t="s">
         <v>38</v>
@@ -8068,7 +8064,7 @@
         <v>16</v>
       </c>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I195" t="s">
         <v>38</v>
@@ -8100,7 +8096,7 @@
         <v>16</v>
       </c>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I196" t="s">
         <v>38</v>
@@ -8132,7 +8128,7 @@
         <v>16</v>
       </c>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I197" t="s">
         <v>38</v>
@@ -8164,7 +8160,7 @@
         <v>16</v>
       </c>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I198" t="s">
         <v>38</v>
@@ -8178,7 +8174,7 @@
         <v>25</v>
       </c>
       <c r="B199" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
@@ -8190,16 +8186,16 @@
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
         <v>16</v>
       </c>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I199" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
@@ -8228,7 +8224,7 @@
         <v>16</v>
       </c>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I200" t="s">
         <v>76</v>
@@ -8260,7 +8256,7 @@
         <v>16</v>
       </c>
       <c r="H201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I201" t="s">
         <v>76</v>
@@ -8292,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="H202" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I202" t="s">
         <v>76</v>
@@ -8315,10 +8311,10 @@
         <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="G203" t="s">
         <v>16</v>
@@ -8350,13 +8346,13 @@
         <v>20</v>
       </c>
       <c r="F204" t="s">
+        <v>223</v>
+      </c>
+      <c r="G204" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s">
         <v>225</v>
-      </c>
-      <c r="G204" t="s">
-        <v>16</v>
-      </c>
-      <c r="H204" t="s">
-        <v>226</v>
       </c>
       <c r="I204" t="s">
         <v>76</v>
@@ -8382,7 +8378,7 @@
         <v>20</v>
       </c>
       <c r="F205" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G205" t="s">
         <v>16</v>
@@ -8414,13 +8410,13 @@
         <v>20</v>
       </c>
       <c r="F206" t="s">
+        <v>226</v>
+      </c>
+      <c r="G206" t="s">
+        <v>16</v>
+      </c>
+      <c r="H206" t="s">
         <v>228</v>
-      </c>
-      <c r="G206" t="s">
-        <v>16</v>
-      </c>
-      <c r="H206" t="s">
-        <v>229</v>
       </c>
       <c r="I206" t="s">
         <v>76</v>
@@ -8443,16 +8439,16 @@
         <v>13</v>
       </c>
       <c r="E207" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
         <v>16</v>
       </c>
       <c r="H207" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I207" t="s">
         <v>76</v>
@@ -8466,7 +8462,7 @@
         <v>25</v>
       </c>
       <c r="B208" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
@@ -8475,10 +8471,10 @@
         <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="G208" t="s">
         <v>16</v>
@@ -8487,7 +8483,7 @@
         <v>231</v>
       </c>
       <c r="I208" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="J208" t="n">
         <v>1</v>
@@ -8498,28 +8494,28 @@
         <v>25</v>
       </c>
       <c r="B209" t="s">
+        <v>230</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s">
+        <v>131</v>
+      </c>
+      <c r="G209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
+        <v>231</v>
+      </c>
+      <c r="I209" t="s">
         <v>232</v>
-      </c>
-      <c r="C209" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" t="s">
-        <v>108</v>
-      </c>
-      <c r="F209" t="s">
-        <v>179</v>
-      </c>
-      <c r="G209" t="s">
-        <v>16</v>
-      </c>
-      <c r="H209" t="s">
-        <v>233</v>
-      </c>
-      <c r="I209" t="s">
-        <v>234</v>
       </c>
       <c r="J209" t="n">
         <v>1</v>
@@ -8530,7 +8526,7 @@
         <v>25</v>
       </c>
       <c r="B210" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
@@ -8539,10 +8535,10 @@
         <v>13</v>
       </c>
       <c r="E210" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F210" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G210" t="s">
         <v>16</v>
@@ -8551,7 +8547,7 @@
         <v>233</v>
       </c>
       <c r="I210" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
@@ -8562,28 +8558,28 @@
         <v>25</v>
       </c>
       <c r="B211" t="s">
+        <v>230</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
+        <v>131</v>
+      </c>
+      <c r="G211" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s">
+        <v>233</v>
+      </c>
+      <c r="I211" t="s">
         <v>232</v>
-      </c>
-      <c r="C211" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" t="s">
-        <v>13</v>
-      </c>
-      <c r="E211" t="s">
-        <v>108</v>
-      </c>
-      <c r="F211" t="s">
-        <v>179</v>
-      </c>
-      <c r="G211" t="s">
-        <v>16</v>
-      </c>
-      <c r="H211" t="s">
-        <v>235</v>
-      </c>
-      <c r="I211" t="s">
-        <v>234</v>
       </c>
       <c r="J211" t="n">
         <v>1</v>
@@ -8594,28 +8590,28 @@
         <v>25</v>
       </c>
       <c r="B212" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>108</v>
+      </c>
+      <c r="F212" t="s">
+        <v>177</v>
+      </c>
+      <c r="G212" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s">
+        <v>234</v>
+      </c>
+      <c r="I212" t="s">
         <v>232</v>
-      </c>
-      <c r="C212" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" t="s">
-        <v>13</v>
-      </c>
-      <c r="E212" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" t="s">
-        <v>131</v>
-      </c>
-      <c r="G212" t="s">
-        <v>16</v>
-      </c>
-      <c r="H212" t="s">
-        <v>235</v>
-      </c>
-      <c r="I212" t="s">
-        <v>234</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
@@ -8626,28 +8622,28 @@
         <v>25</v>
       </c>
       <c r="B213" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
+        <v>131</v>
+      </c>
+      <c r="G213" t="s">
+        <v>16</v>
+      </c>
+      <c r="H213" t="s">
+        <v>234</v>
+      </c>
+      <c r="I213" t="s">
         <v>232</v>
-      </c>
-      <c r="C213" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" t="s">
-        <v>108</v>
-      </c>
-      <c r="F213" t="s">
-        <v>179</v>
-      </c>
-      <c r="G213" t="s">
-        <v>16</v>
-      </c>
-      <c r="H213" t="s">
-        <v>236</v>
-      </c>
-      <c r="I213" t="s">
-        <v>234</v>
       </c>
       <c r="J213" t="n">
         <v>1</v>
@@ -8658,28 +8654,28 @@
         <v>25</v>
       </c>
       <c r="B214" t="s">
+        <v>230</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" t="s">
+        <v>108</v>
+      </c>
+      <c r="F214" t="s">
+        <v>177</v>
+      </c>
+      <c r="G214" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
+        <v>235</v>
+      </c>
+      <c r="I214" t="s">
         <v>232</v>
-      </c>
-      <c r="C214" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" t="s">
-        <v>13</v>
-      </c>
-      <c r="E214" t="s">
-        <v>14</v>
-      </c>
-      <c r="F214" t="s">
-        <v>131</v>
-      </c>
-      <c r="G214" t="s">
-        <v>16</v>
-      </c>
-      <c r="H214" t="s">
-        <v>236</v>
-      </c>
-      <c r="I214" t="s">
-        <v>234</v>
       </c>
       <c r="J214" t="n">
         <v>1</v>
@@ -8690,28 +8686,28 @@
         <v>25</v>
       </c>
       <c r="B215" t="s">
+        <v>230</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
+        <v>131</v>
+      </c>
+      <c r="G215" t="s">
+        <v>16</v>
+      </c>
+      <c r="H215" t="s">
+        <v>235</v>
+      </c>
+      <c r="I215" t="s">
         <v>232</v>
-      </c>
-      <c r="C215" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" t="s">
-        <v>108</v>
-      </c>
-      <c r="F215" t="s">
-        <v>179</v>
-      </c>
-      <c r="G215" t="s">
-        <v>16</v>
-      </c>
-      <c r="H215" t="s">
-        <v>237</v>
-      </c>
-      <c r="I215" t="s">
-        <v>234</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
@@ -8722,28 +8718,28 @@
         <v>25</v>
       </c>
       <c r="B216" t="s">
+        <v>230</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" t="s">
+        <v>108</v>
+      </c>
+      <c r="F216" t="s">
+        <v>177</v>
+      </c>
+      <c r="G216" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s">
+        <v>236</v>
+      </c>
+      <c r="I216" t="s">
         <v>232</v>
-      </c>
-      <c r="C216" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" t="s">
-        <v>13</v>
-      </c>
-      <c r="E216" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" t="s">
-        <v>131</v>
-      </c>
-      <c r="G216" t="s">
-        <v>16</v>
-      </c>
-      <c r="H216" t="s">
-        <v>237</v>
-      </c>
-      <c r="I216" t="s">
-        <v>234</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
@@ -8754,28 +8750,28 @@
         <v>25</v>
       </c>
       <c r="B217" t="s">
+        <v>230</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" t="s">
+        <v>131</v>
+      </c>
+      <c r="G217" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" t="s">
+        <v>236</v>
+      </c>
+      <c r="I217" t="s">
         <v>232</v>
-      </c>
-      <c r="C217" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" t="s">
-        <v>13</v>
-      </c>
-      <c r="E217" t="s">
-        <v>108</v>
-      </c>
-      <c r="F217" t="s">
-        <v>179</v>
-      </c>
-      <c r="G217" t="s">
-        <v>16</v>
-      </c>
-      <c r="H217" t="s">
-        <v>238</v>
-      </c>
-      <c r="I217" t="s">
-        <v>234</v>
       </c>
       <c r="J217" t="n">
         <v>1</v>
@@ -8786,28 +8782,28 @@
         <v>25</v>
       </c>
       <c r="B218" t="s">
+        <v>230</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>108</v>
+      </c>
+      <c r="F218" t="s">
+        <v>177</v>
+      </c>
+      <c r="G218" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" t="s">
+        <v>237</v>
+      </c>
+      <c r="I218" t="s">
         <v>232</v>
-      </c>
-      <c r="C218" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F218" t="s">
-        <v>131</v>
-      </c>
-      <c r="G218" t="s">
-        <v>16</v>
-      </c>
-      <c r="H218" t="s">
-        <v>238</v>
-      </c>
-      <c r="I218" t="s">
-        <v>234</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
@@ -8818,28 +8814,28 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
+        <v>230</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" t="s">
+        <v>131</v>
+      </c>
+      <c r="G219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" t="s">
+        <v>237</v>
+      </c>
+      <c r="I219" t="s">
         <v>232</v>
-      </c>
-      <c r="C219" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="E219" t="s">
-        <v>108</v>
-      </c>
-      <c r="F219" t="s">
-        <v>179</v>
-      </c>
-      <c r="G219" t="s">
-        <v>16</v>
-      </c>
-      <c r="H219" t="s">
-        <v>239</v>
-      </c>
-      <c r="I219" t="s">
-        <v>234</v>
       </c>
       <c r="J219" t="n">
         <v>1</v>
@@ -8850,28 +8846,28 @@
         <v>25</v>
       </c>
       <c r="B220" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>108</v>
+      </c>
+      <c r="F220" t="s">
+        <v>177</v>
+      </c>
+      <c r="G220" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" t="s">
+        <v>238</v>
+      </c>
+      <c r="I220" t="s">
         <v>232</v>
-      </c>
-      <c r="C220" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" t="s">
-        <v>13</v>
-      </c>
-      <c r="E220" t="s">
-        <v>14</v>
-      </c>
-      <c r="F220" t="s">
-        <v>131</v>
-      </c>
-      <c r="G220" t="s">
-        <v>16</v>
-      </c>
-      <c r="H220" t="s">
-        <v>239</v>
-      </c>
-      <c r="I220" t="s">
-        <v>234</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -8882,28 +8878,28 @@
         <v>25</v>
       </c>
       <c r="B221" t="s">
+        <v>230</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" t="s">
+        <v>131</v>
+      </c>
+      <c r="G221" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s">
+        <v>238</v>
+      </c>
+      <c r="I221" t="s">
         <v>232</v>
-      </c>
-      <c r="C221" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" t="s">
-        <v>13</v>
-      </c>
-      <c r="E221" t="s">
-        <v>108</v>
-      </c>
-      <c r="F221" t="s">
-        <v>179</v>
-      </c>
-      <c r="G221" t="s">
-        <v>16</v>
-      </c>
-      <c r="H221" t="s">
-        <v>240</v>
-      </c>
-      <c r="I221" t="s">
-        <v>234</v>
       </c>
       <c r="J221" t="n">
         <v>1</v>
@@ -8914,28 +8910,28 @@
         <v>25</v>
       </c>
       <c r="B222" t="s">
+        <v>230</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>108</v>
+      </c>
+      <c r="F222" t="s">
+        <v>177</v>
+      </c>
+      <c r="G222" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" t="s">
+        <v>239</v>
+      </c>
+      <c r="I222" t="s">
         <v>232</v>
-      </c>
-      <c r="C222" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" t="s">
-        <v>13</v>
-      </c>
-      <c r="E222" t="s">
-        <v>14</v>
-      </c>
-      <c r="F222" t="s">
-        <v>131</v>
-      </c>
-      <c r="G222" t="s">
-        <v>16</v>
-      </c>
-      <c r="H222" t="s">
-        <v>240</v>
-      </c>
-      <c r="I222" t="s">
-        <v>234</v>
       </c>
       <c r="J222" t="n">
         <v>1</v>
@@ -8946,28 +8942,28 @@
         <v>25</v>
       </c>
       <c r="B223" t="s">
+        <v>230</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" t="s">
+        <v>131</v>
+      </c>
+      <c r="G223" t="s">
+        <v>16</v>
+      </c>
+      <c r="H223" t="s">
+        <v>239</v>
+      </c>
+      <c r="I223" t="s">
         <v>232</v>
-      </c>
-      <c r="C223" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" t="s">
-        <v>13</v>
-      </c>
-      <c r="E223" t="s">
-        <v>108</v>
-      </c>
-      <c r="F223" t="s">
-        <v>179</v>
-      </c>
-      <c r="G223" t="s">
-        <v>16</v>
-      </c>
-      <c r="H223" t="s">
-        <v>241</v>
-      </c>
-      <c r="I223" t="s">
-        <v>234</v>
       </c>
       <c r="J223" t="n">
         <v>1</v>
@@ -8978,28 +8974,28 @@
         <v>25</v>
       </c>
       <c r="B224" t="s">
+        <v>230</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>108</v>
+      </c>
+      <c r="F224" t="s">
+        <v>177</v>
+      </c>
+      <c r="G224" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s">
+        <v>240</v>
+      </c>
+      <c r="I224" t="s">
         <v>232</v>
-      </c>
-      <c r="C224" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" t="s">
-        <v>13</v>
-      </c>
-      <c r="E224" t="s">
-        <v>14</v>
-      </c>
-      <c r="F224" t="s">
-        <v>131</v>
-      </c>
-      <c r="G224" t="s">
-        <v>16</v>
-      </c>
-      <c r="H224" t="s">
-        <v>241</v>
-      </c>
-      <c r="I224" t="s">
-        <v>234</v>
       </c>
       <c r="J224" t="n">
         <v>1</v>
@@ -9010,28 +9006,28 @@
         <v>25</v>
       </c>
       <c r="B225" t="s">
+        <v>230</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" t="s">
+        <v>131</v>
+      </c>
+      <c r="G225" t="s">
+        <v>16</v>
+      </c>
+      <c r="H225" t="s">
+        <v>240</v>
+      </c>
+      <c r="I225" t="s">
         <v>232</v>
-      </c>
-      <c r="C225" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" t="s">
-        <v>13</v>
-      </c>
-      <c r="E225" t="s">
-        <v>108</v>
-      </c>
-      <c r="F225" t="s">
-        <v>179</v>
-      </c>
-      <c r="G225" t="s">
-        <v>16</v>
-      </c>
-      <c r="H225" t="s">
-        <v>242</v>
-      </c>
-      <c r="I225" t="s">
-        <v>234</v>
       </c>
       <c r="J225" t="n">
         <v>1</v>
@@ -9042,28 +9038,28 @@
         <v>25</v>
       </c>
       <c r="B226" t="s">
+        <v>230</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>108</v>
+      </c>
+      <c r="F226" t="s">
+        <v>177</v>
+      </c>
+      <c r="G226" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" t="s">
+        <v>241</v>
+      </c>
+      <c r="I226" t="s">
         <v>232</v>
-      </c>
-      <c r="C226" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" t="s">
-        <v>13</v>
-      </c>
-      <c r="E226" t="s">
-        <v>14</v>
-      </c>
-      <c r="F226" t="s">
-        <v>131</v>
-      </c>
-      <c r="G226" t="s">
-        <v>16</v>
-      </c>
-      <c r="H226" t="s">
-        <v>242</v>
-      </c>
-      <c r="I226" t="s">
-        <v>234</v>
       </c>
       <c r="J226" t="n">
         <v>1</v>
@@ -9074,28 +9070,28 @@
         <v>25</v>
       </c>
       <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" t="s">
+        <v>131</v>
+      </c>
+      <c r="G227" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" t="s">
+        <v>241</v>
+      </c>
+      <c r="I227" t="s">
         <v>232</v>
-      </c>
-      <c r="C227" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" t="s">
-        <v>13</v>
-      </c>
-      <c r="E227" t="s">
-        <v>108</v>
-      </c>
-      <c r="F227" t="s">
-        <v>179</v>
-      </c>
-      <c r="G227" t="s">
-        <v>16</v>
-      </c>
-      <c r="H227" t="s">
-        <v>243</v>
-      </c>
-      <c r="I227" t="s">
-        <v>234</v>
       </c>
       <c r="J227" t="n">
         <v>1</v>
@@ -9106,28 +9102,28 @@
         <v>25</v>
       </c>
       <c r="B228" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" t="s">
+        <v>108</v>
+      </c>
+      <c r="F228" t="s">
+        <v>177</v>
+      </c>
+      <c r="G228" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s">
+        <v>242</v>
+      </c>
+      <c r="I228" t="s">
         <v>232</v>
-      </c>
-      <c r="C228" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" t="s">
-        <v>13</v>
-      </c>
-      <c r="E228" t="s">
-        <v>14</v>
-      </c>
-      <c r="F228" t="s">
-        <v>131</v>
-      </c>
-      <c r="G228" t="s">
-        <v>16</v>
-      </c>
-      <c r="H228" t="s">
-        <v>243</v>
-      </c>
-      <c r="I228" t="s">
-        <v>234</v>
       </c>
       <c r="J228" t="n">
         <v>1</v>
@@ -9138,28 +9134,28 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" t="s">
+        <v>131</v>
+      </c>
+      <c r="G229" t="s">
+        <v>16</v>
+      </c>
+      <c r="H229" t="s">
+        <v>242</v>
+      </c>
+      <c r="I229" t="s">
         <v>232</v>
-      </c>
-      <c r="C229" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" t="s">
-        <v>13</v>
-      </c>
-      <c r="E229" t="s">
-        <v>108</v>
-      </c>
-      <c r="F229" t="s">
-        <v>179</v>
-      </c>
-      <c r="G229" t="s">
-        <v>16</v>
-      </c>
-      <c r="H229" t="s">
-        <v>244</v>
-      </c>
-      <c r="I229" t="s">
-        <v>234</v>
       </c>
       <c r="J229" t="n">
         <v>1</v>
@@ -9170,28 +9166,28 @@
         <v>25</v>
       </c>
       <c r="B230" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" t="s">
+        <v>108</v>
+      </c>
+      <c r="F230" t="s">
+        <v>177</v>
+      </c>
+      <c r="G230" t="s">
+        <v>16</v>
+      </c>
+      <c r="H230" t="s">
+        <v>243</v>
+      </c>
+      <c r="I230" t="s">
         <v>232</v>
-      </c>
-      <c r="C230" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" t="s">
-        <v>13</v>
-      </c>
-      <c r="E230" t="s">
-        <v>14</v>
-      </c>
-      <c r="F230" t="s">
-        <v>131</v>
-      </c>
-      <c r="G230" t="s">
-        <v>16</v>
-      </c>
-      <c r="H230" t="s">
-        <v>244</v>
-      </c>
-      <c r="I230" t="s">
-        <v>234</v>
       </c>
       <c r="J230" t="n">
         <v>1</v>
@@ -9202,28 +9198,28 @@
         <v>25</v>
       </c>
       <c r="B231" t="s">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" t="s">
+        <v>131</v>
+      </c>
+      <c r="G231" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" t="s">
+        <v>243</v>
+      </c>
+      <c r="I231" t="s">
         <v>232</v>
-      </c>
-      <c r="C231" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" t="s">
-        <v>108</v>
-      </c>
-      <c r="F231" t="s">
-        <v>179</v>
-      </c>
-      <c r="G231" t="s">
-        <v>16</v>
-      </c>
-      <c r="H231" t="s">
-        <v>245</v>
-      </c>
-      <c r="I231" t="s">
-        <v>234</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
@@ -9234,7 +9230,7 @@
         <v>25</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -9243,19 +9239,19 @@
         <v>13</v>
       </c>
       <c r="E232" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F232" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G232" t="s">
         <v>16</v>
       </c>
       <c r="H232" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I232" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -9275,16 +9271,16 @@
         <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G233" t="s">
         <v>16</v>
       </c>
       <c r="H233" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I233" t="s">
         <v>76</v>
@@ -9307,16 +9303,16 @@
         <v>13</v>
       </c>
       <c r="E234" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F234" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G234" t="s">
         <v>16</v>
       </c>
       <c r="H234" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I234" t="s">
         <v>76</v>
@@ -9339,16 +9335,16 @@
         <v>13</v>
       </c>
       <c r="E235" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G235" t="s">
         <v>16</v>
       </c>
       <c r="H235" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I235" t="s">
         <v>76</v>
@@ -9371,16 +9367,16 @@
         <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F236" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G236" t="s">
         <v>16</v>
       </c>
       <c r="H236" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I236" t="s">
         <v>76</v>
@@ -9403,16 +9399,16 @@
         <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G237" t="s">
         <v>16</v>
       </c>
       <c r="H237" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I237" t="s">
         <v>76</v>
@@ -9435,16 +9431,16 @@
         <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F238" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G238" t="s">
         <v>16</v>
       </c>
       <c r="H238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I238" t="s">
         <v>76</v>
@@ -9467,16 +9463,16 @@
         <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G239" t="s">
         <v>16</v>
       </c>
       <c r="H239" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I239" t="s">
         <v>76</v>
@@ -9499,16 +9495,16 @@
         <v>13</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F240" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G240" t="s">
         <v>16</v>
       </c>
       <c r="H240" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I240" t="s">
         <v>76</v>
@@ -9531,16 +9527,16 @@
         <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G241" t="s">
         <v>16</v>
       </c>
       <c r="H241" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I241" t="s">
         <v>76</v>
@@ -9563,16 +9559,16 @@
         <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F242" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G242" t="s">
         <v>16</v>
       </c>
       <c r="H242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I242" t="s">
         <v>76</v>
@@ -9595,16 +9591,16 @@
         <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G243" t="s">
         <v>16</v>
       </c>
       <c r="H243" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I243" t="s">
         <v>76</v>
@@ -9630,13 +9626,13 @@
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G244" t="s">
         <v>16</v>
       </c>
       <c r="H244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I244" t="s">
         <v>76</v>
@@ -9668,7 +9664,7 @@
         <v>16</v>
       </c>
       <c r="H245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I245" t="s">
         <v>76</v>
@@ -9694,7 +9690,7 @@
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="G246" t="s">
         <v>16</v>
@@ -9726,13 +9722,13 @@
         <v>14</v>
       </c>
       <c r="F247" t="s">
+        <v>59</v>
+      </c>
+      <c r="G247" t="s">
+        <v>16</v>
+      </c>
+      <c r="H247" t="s">
         <v>254</v>
-      </c>
-      <c r="G247" t="s">
-        <v>16</v>
-      </c>
-      <c r="H247" t="s">
-        <v>255</v>
       </c>
       <c r="I247" t="s">
         <v>76</v>
@@ -9764,7 +9760,7 @@
         <v>16</v>
       </c>
       <c r="H248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I248" t="s">
         <v>76</v>
@@ -9790,13 +9786,13 @@
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G249" t="s">
         <v>16</v>
       </c>
       <c r="H249" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I249" t="s">
         <v>76</v>
@@ -9822,7 +9818,7 @@
         <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="G250" t="s">
         <v>16</v>
@@ -9854,13 +9850,13 @@
         <v>14</v>
       </c>
       <c r="F251" t="s">
+        <v>257</v>
+      </c>
+      <c r="G251" t="s">
+        <v>16</v>
+      </c>
+      <c r="H251" t="s">
         <v>259</v>
-      </c>
-      <c r="G251" t="s">
-        <v>16</v>
-      </c>
-      <c r="H251" t="s">
-        <v>260</v>
       </c>
       <c r="I251" t="s">
         <v>76</v>
@@ -9886,13 +9882,13 @@
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G252" t="s">
         <v>16</v>
       </c>
       <c r="H252" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I252" t="s">
         <v>76</v>
@@ -9906,7 +9902,7 @@
         <v>25</v>
       </c>
       <c r="B253" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="C253" t="s">
         <v>12</v>
@@ -9918,7 +9914,7 @@
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G253" t="s">
         <v>16</v>
@@ -9927,7 +9923,7 @@
         <v>262</v>
       </c>
       <c r="I253" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
@@ -9938,7 +9934,7 @@
         <v>25</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C254" t="s">
         <v>12</v>
@@ -9950,7 +9946,7 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G254" t="s">
         <v>16</v>
@@ -9959,7 +9955,7 @@
         <v>264</v>
       </c>
       <c r="I254" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J254" t="n">
         <v>1</v>
@@ -9970,28 +9966,28 @@
         <v>25</v>
       </c>
       <c r="B255" t="s">
+        <v>261</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" t="s">
+        <v>257</v>
+      </c>
+      <c r="G255" t="s">
+        <v>16</v>
+      </c>
+      <c r="H255" t="s">
+        <v>265</v>
+      </c>
+      <c r="I255" t="s">
         <v>263</v>
-      </c>
-      <c r="C255" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" t="s">
-        <v>13</v>
-      </c>
-      <c r="E255" t="s">
-        <v>14</v>
-      </c>
-      <c r="F255" t="s">
-        <v>259</v>
-      </c>
-      <c r="G255" t="s">
-        <v>16</v>
-      </c>
-      <c r="H255" t="s">
-        <v>266</v>
-      </c>
-      <c r="I255" t="s">
-        <v>265</v>
       </c>
       <c r="J255" t="n">
         <v>1</v>
@@ -10002,28 +9998,28 @@
         <v>25</v>
       </c>
       <c r="B256" t="s">
+        <v>261</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>257</v>
+      </c>
+      <c r="G256" t="s">
+        <v>16</v>
+      </c>
+      <c r="H256" t="s">
+        <v>266</v>
+      </c>
+      <c r="I256" t="s">
         <v>263</v>
-      </c>
-      <c r="C256" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" t="s">
-        <v>14</v>
-      </c>
-      <c r="F256" t="s">
-        <v>259</v>
-      </c>
-      <c r="G256" t="s">
-        <v>16</v>
-      </c>
-      <c r="H256" t="s">
-        <v>267</v>
-      </c>
-      <c r="I256" t="s">
-        <v>265</v>
       </c>
       <c r="J256" t="n">
         <v>1</v>
@@ -10034,28 +10030,28 @@
         <v>25</v>
       </c>
       <c r="B257" t="s">
+        <v>261</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" t="s">
+        <v>257</v>
+      </c>
+      <c r="G257" t="s">
+        <v>16</v>
+      </c>
+      <c r="H257" t="s">
+        <v>267</v>
+      </c>
+      <c r="I257" t="s">
         <v>263</v>
-      </c>
-      <c r="C257" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" t="s">
-        <v>13</v>
-      </c>
-      <c r="E257" t="s">
-        <v>14</v>
-      </c>
-      <c r="F257" t="s">
-        <v>259</v>
-      </c>
-      <c r="G257" t="s">
-        <v>16</v>
-      </c>
-      <c r="H257" t="s">
-        <v>268</v>
-      </c>
-      <c r="I257" t="s">
-        <v>265</v>
       </c>
       <c r="J257" t="n">
         <v>1</v>
@@ -10066,28 +10062,28 @@
         <v>25</v>
       </c>
       <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>257</v>
+      </c>
+      <c r="G258" t="s">
+        <v>16</v>
+      </c>
+      <c r="H258" t="s">
+        <v>268</v>
+      </c>
+      <c r="I258" t="s">
         <v>263</v>
-      </c>
-      <c r="C258" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" t="s">
-        <v>14</v>
-      </c>
-      <c r="F258" t="s">
-        <v>259</v>
-      </c>
-      <c r="G258" t="s">
-        <v>16</v>
-      </c>
-      <c r="H258" t="s">
-        <v>269</v>
-      </c>
-      <c r="I258" t="s">
-        <v>265</v>
       </c>
       <c r="J258" t="n">
         <v>1</v>
@@ -10098,28 +10094,28 @@
         <v>25</v>
       </c>
       <c r="B259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>257</v>
+      </c>
+      <c r="G259" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" t="s">
+        <v>269</v>
+      </c>
+      <c r="I259" t="s">
         <v>263</v>
-      </c>
-      <c r="C259" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" t="s">
-        <v>13</v>
-      </c>
-      <c r="E259" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" t="s">
-        <v>259</v>
-      </c>
-      <c r="G259" t="s">
-        <v>16</v>
-      </c>
-      <c r="H259" t="s">
-        <v>270</v>
-      </c>
-      <c r="I259" t="s">
-        <v>265</v>
       </c>
       <c r="J259" t="n">
         <v>1</v>
@@ -10130,28 +10126,28 @@
         <v>25</v>
       </c>
       <c r="B260" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" t="s">
+        <v>257</v>
+      </c>
+      <c r="G260" t="s">
+        <v>16</v>
+      </c>
+      <c r="H260" t="s">
+        <v>270</v>
+      </c>
+      <c r="I260" t="s">
         <v>263</v>
-      </c>
-      <c r="C260" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" t="s">
-        <v>13</v>
-      </c>
-      <c r="E260" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" t="s">
-        <v>259</v>
-      </c>
-      <c r="G260" t="s">
-        <v>16</v>
-      </c>
-      <c r="H260" t="s">
-        <v>271</v>
-      </c>
-      <c r="I260" t="s">
-        <v>265</v>
       </c>
       <c r="J260" t="n">
         <v>1</v>
@@ -10162,28 +10158,28 @@
         <v>25</v>
       </c>
       <c r="B261" t="s">
+        <v>261</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
+        <v>257</v>
+      </c>
+      <c r="G261" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" t="s">
+        <v>271</v>
+      </c>
+      <c r="I261" t="s">
         <v>263</v>
-      </c>
-      <c r="C261" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" t="s">
-        <v>13</v>
-      </c>
-      <c r="E261" t="s">
-        <v>14</v>
-      </c>
-      <c r="F261" t="s">
-        <v>259</v>
-      </c>
-      <c r="G261" t="s">
-        <v>16</v>
-      </c>
-      <c r="H261" t="s">
-        <v>272</v>
-      </c>
-      <c r="I261" t="s">
-        <v>265</v>
       </c>
       <c r="J261" t="n">
         <v>1</v>
@@ -10194,28 +10190,28 @@
         <v>25</v>
       </c>
       <c r="B262" t="s">
+        <v>261</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
+        <v>257</v>
+      </c>
+      <c r="G262" t="s">
+        <v>16</v>
+      </c>
+      <c r="H262" t="s">
+        <v>272</v>
+      </c>
+      <c r="I262" t="s">
         <v>263</v>
-      </c>
-      <c r="C262" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" t="s">
-        <v>13</v>
-      </c>
-      <c r="E262" t="s">
-        <v>14</v>
-      </c>
-      <c r="F262" t="s">
-        <v>259</v>
-      </c>
-      <c r="G262" t="s">
-        <v>16</v>
-      </c>
-      <c r="H262" t="s">
-        <v>273</v>
-      </c>
-      <c r="I262" t="s">
-        <v>265</v>
       </c>
       <c r="J262" t="n">
         <v>1</v>
@@ -10226,28 +10222,28 @@
         <v>25</v>
       </c>
       <c r="B263" t="s">
+        <v>261</v>
+      </c>
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" t="s">
+        <v>257</v>
+      </c>
+      <c r="G263" t="s">
+        <v>16</v>
+      </c>
+      <c r="H263" t="s">
+        <v>273</v>
+      </c>
+      <c r="I263" t="s">
         <v>263</v>
-      </c>
-      <c r="C263" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" t="s">
-        <v>13</v>
-      </c>
-      <c r="E263" t="s">
-        <v>14</v>
-      </c>
-      <c r="F263" t="s">
-        <v>259</v>
-      </c>
-      <c r="G263" t="s">
-        <v>16</v>
-      </c>
-      <c r="H263" t="s">
-        <v>274</v>
-      </c>
-      <c r="I263" t="s">
-        <v>265</v>
       </c>
       <c r="J263" t="n">
         <v>1</v>
@@ -10258,28 +10254,28 @@
         <v>25</v>
       </c>
       <c r="B264" t="s">
+        <v>261</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" t="s">
+        <v>20</v>
+      </c>
+      <c r="F264" t="s">
+        <v>46</v>
+      </c>
+      <c r="G264" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" t="s">
+        <v>274</v>
+      </c>
+      <c r="I264" t="s">
         <v>263</v>
-      </c>
-      <c r="C264" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264" t="s">
-        <v>13</v>
-      </c>
-      <c r="E264" t="s">
-        <v>14</v>
-      </c>
-      <c r="F264" t="s">
-        <v>259</v>
-      </c>
-      <c r="G264" t="s">
-        <v>16</v>
-      </c>
-      <c r="H264" t="s">
-        <v>275</v>
-      </c>
-      <c r="I264" t="s">
-        <v>265</v>
       </c>
       <c r="J264" t="n">
         <v>1</v>
@@ -10290,7 +10286,7 @@
         <v>25</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C265" t="s">
         <v>12</v>
@@ -10308,10 +10304,10 @@
         <v>16</v>
       </c>
       <c r="H265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I265" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J265" t="n">
         <v>1</v>
@@ -10322,7 +10318,7 @@
         <v>25</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
@@ -10334,16 +10330,16 @@
         <v>20</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G266" t="s">
         <v>16</v>
       </c>
       <c r="H266" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I266" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J266" t="n">
         <v>1</v>
@@ -10354,7 +10350,7 @@
         <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C267" t="s">
         <v>12</v>
@@ -10366,7 +10362,7 @@
         <v>20</v>
       </c>
       <c r="F267" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="G267" t="s">
         <v>16</v>
@@ -10375,7 +10371,7 @@
         <v>278</v>
       </c>
       <c r="I267" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J267" t="n">
         <v>1</v>
@@ -10386,7 +10382,7 @@
         <v>25</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
@@ -10398,16 +10394,16 @@
         <v>20</v>
       </c>
       <c r="F268" t="s">
+        <v>277</v>
+      </c>
+      <c r="G268" t="s">
+        <v>16</v>
+      </c>
+      <c r="H268" t="s">
         <v>279</v>
       </c>
-      <c r="G268" t="s">
-        <v>16</v>
-      </c>
-      <c r="H268" t="s">
-        <v>280</v>
-      </c>
       <c r="I268" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J268" t="n">
         <v>1</v>
@@ -10418,7 +10414,7 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
@@ -10430,16 +10426,16 @@
         <v>20</v>
       </c>
       <c r="F269" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G269" t="s">
         <v>16</v>
       </c>
       <c r="H269" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I269" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J269" t="n">
         <v>1</v>
@@ -10450,7 +10446,7 @@
         <v>25</v>
       </c>
       <c r="B270" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -10462,16 +10458,16 @@
         <v>20</v>
       </c>
       <c r="F270" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G270" t="s">
         <v>16</v>
       </c>
       <c r="H270" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I270" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J270" t="n">
         <v>1</v>
@@ -10482,7 +10478,7 @@
         <v>25</v>
       </c>
       <c r="B271" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
@@ -10494,16 +10490,16 @@
         <v>20</v>
       </c>
       <c r="F271" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="G271" t="s">
         <v>16</v>
       </c>
       <c r="H271" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I271" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J271" t="n">
         <v>1</v>
@@ -10514,7 +10510,7 @@
         <v>25</v>
       </c>
       <c r="B272" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
@@ -10532,10 +10528,10 @@
         <v>16</v>
       </c>
       <c r="H272" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I272" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J272" t="n">
         <v>1</v>
@@ -10546,7 +10542,7 @@
         <v>25</v>
       </c>
       <c r="B273" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
@@ -10564,10 +10560,10 @@
         <v>16</v>
       </c>
       <c r="H273" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I273" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J273" t="n">
         <v>1</v>
@@ -10578,7 +10574,7 @@
         <v>25</v>
       </c>
       <c r="B274" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
@@ -10596,10 +10592,10 @@
         <v>16</v>
       </c>
       <c r="H274" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I274" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J274" t="n">
         <v>1</v>
@@ -10610,7 +10606,7 @@
         <v>25</v>
       </c>
       <c r="B275" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C275" t="s">
         <v>12</v>
@@ -10619,10 +10615,10 @@
         <v>13</v>
       </c>
       <c r="E275" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="G275" t="s">
         <v>16</v>
@@ -10631,7 +10627,7 @@
         <v>287</v>
       </c>
       <c r="I275" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="J275" t="n">
         <v>1</v>
@@ -10642,7 +10638,7 @@
         <v>25</v>
       </c>
       <c r="B276" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C276" t="s">
         <v>12</v>
@@ -10663,7 +10659,7 @@
         <v>289</v>
       </c>
       <c r="I276" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -10674,28 +10670,28 @@
         <v>25</v>
       </c>
       <c r="B277" t="s">
+        <v>230</v>
+      </c>
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" t="s">
+        <v>14</v>
+      </c>
+      <c r="F277" t="s">
+        <v>288</v>
+      </c>
+      <c r="G277" t="s">
+        <v>16</v>
+      </c>
+      <c r="H277" t="s">
+        <v>290</v>
+      </c>
+      <c r="I277" t="s">
         <v>232</v>
-      </c>
-      <c r="C277" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" t="s">
-        <v>13</v>
-      </c>
-      <c r="E277" t="s">
-        <v>14</v>
-      </c>
-      <c r="F277" t="s">
-        <v>290</v>
-      </c>
-      <c r="G277" t="s">
-        <v>16</v>
-      </c>
-      <c r="H277" t="s">
-        <v>291</v>
-      </c>
-      <c r="I277" t="s">
-        <v>234</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -10706,28 +10702,28 @@
         <v>25</v>
       </c>
       <c r="B278" t="s">
+        <v>230</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>14</v>
+      </c>
+      <c r="F278" t="s">
+        <v>59</v>
+      </c>
+      <c r="G278" t="s">
+        <v>16</v>
+      </c>
+      <c r="H278" t="s">
+        <v>291</v>
+      </c>
+      <c r="I278" t="s">
         <v>232</v>
-      </c>
-      <c r="C278" t="s">
-        <v>12</v>
-      </c>
-      <c r="D278" t="s">
-        <v>13</v>
-      </c>
-      <c r="E278" t="s">
-        <v>14</v>
-      </c>
-      <c r="F278" t="s">
-        <v>290</v>
-      </c>
-      <c r="G278" t="s">
-        <v>16</v>
-      </c>
-      <c r="H278" t="s">
-        <v>292</v>
-      </c>
-      <c r="I278" t="s">
-        <v>234</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -10735,10 +10731,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B279" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
@@ -10747,19 +10743,19 @@
         <v>13</v>
       </c>
       <c r="E279" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F279" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G279" t="s">
         <v>16</v>
       </c>
       <c r="H279" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I279" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="J279" t="n">
         <v>1</v>
@@ -10788,7 +10784,7 @@
         <v>16</v>
       </c>
       <c r="H280" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I280" t="s">
         <v>76</v>
@@ -10799,10 +10795,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B281" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -10811,19 +10807,19 @@
         <v>13</v>
       </c>
       <c r="E281" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G281" t="s">
         <v>16</v>
       </c>
       <c r="H281" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I281" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="J281" t="n">
         <v>1</v>
@@ -10831,10 +10827,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B282" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -10846,16 +10842,16 @@
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G282" t="s">
         <v>16</v>
       </c>
       <c r="H282" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I282" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="J282" t="n">
         <v>1</v>
@@ -10884,7 +10880,7 @@
         <v>16</v>
       </c>
       <c r="H283" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I283" t="s">
         <v>103</v>
@@ -10895,10 +10891,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B284" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -10910,7 +10906,7 @@
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="G284" t="s">
         <v>16</v>
@@ -10919,7 +10915,7 @@
         <v>298</v>
       </c>
       <c r="I284" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="J284" t="n">
         <v>1</v>
@@ -10930,7 +10926,7 @@
         <v>25</v>
       </c>
       <c r="B285" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
@@ -10939,7 +10935,7 @@
         <v>13</v>
       </c>
       <c r="E285" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F285" t="s">
         <v>299</v>
@@ -10951,7 +10947,7 @@
         <v>300</v>
       </c>
       <c r="I285" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J285" t="n">
         <v>1</v>
@@ -10959,10 +10955,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B286" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="C286" t="s">
         <v>12</v>
@@ -10971,7 +10967,7 @@
         <v>13</v>
       </c>
       <c r="E286" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F286" t="s">
         <v>301</v>
@@ -10983,7 +10979,7 @@
         <v>302</v>
       </c>
       <c r="I286" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="J286" t="n">
         <v>1</v>
@@ -11006,13 +11002,13 @@
         <v>14</v>
       </c>
       <c r="F287" t="s">
+        <v>301</v>
+      </c>
+      <c r="G287" t="s">
+        <v>16</v>
+      </c>
+      <c r="H287" t="s">
         <v>303</v>
-      </c>
-      <c r="G287" t="s">
-        <v>16</v>
-      </c>
-      <c r="H287" t="s">
-        <v>304</v>
       </c>
       <c r="I287" t="s">
         <v>103</v>
@@ -11038,7 +11034,7 @@
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G288" t="s">
         <v>16</v>
@@ -11070,13 +11066,13 @@
         <v>14</v>
       </c>
       <c r="F289" t="s">
+        <v>304</v>
+      </c>
+      <c r="G289" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" t="s">
         <v>306</v>
-      </c>
-      <c r="G289" t="s">
-        <v>16</v>
-      </c>
-      <c r="H289" t="s">
-        <v>307</v>
       </c>
       <c r="I289" t="s">
         <v>103</v>
@@ -11102,13 +11098,13 @@
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G290" t="s">
         <v>16</v>
       </c>
       <c r="H290" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I290" t="s">
         <v>103</v>
@@ -11134,13 +11130,13 @@
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G291" t="s">
         <v>16</v>
       </c>
       <c r="H291" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I291" t="s">
         <v>103</v>
@@ -11166,13 +11162,13 @@
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G292" t="s">
         <v>16</v>
       </c>
       <c r="H292" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I292" t="s">
         <v>103</v>
@@ -11198,13 +11194,13 @@
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G293" t="s">
         <v>16</v>
       </c>
       <c r="H293" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I293" t="s">
         <v>103</v>
@@ -11230,13 +11226,13 @@
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G294" t="s">
         <v>16</v>
       </c>
       <c r="H294" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I294" t="s">
         <v>103</v>
@@ -11247,10 +11243,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B295" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -11259,19 +11255,19 @@
         <v>13</v>
       </c>
       <c r="E295" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F295" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
         <v>16</v>
       </c>
       <c r="H295" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I295" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="J295" t="n">
         <v>1</v>
@@ -11300,7 +11296,7 @@
         <v>16</v>
       </c>
       <c r="H296" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I296" t="s">
         <v>18</v>
@@ -11311,10 +11307,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="C297" t="s">
         <v>12</v>
@@ -11332,10 +11328,10 @@
         <v>16</v>
       </c>
       <c r="H297" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I297" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="J297" t="n">
         <v>1</v>
@@ -11346,7 +11342,7 @@
         <v>25</v>
       </c>
       <c r="B298" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C298" t="s">
         <v>12</v>
@@ -11364,10 +11360,10 @@
         <v>16</v>
       </c>
       <c r="H298" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I298" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J298" t="n">
         <v>1</v>
@@ -11378,7 +11374,7 @@
         <v>25</v>
       </c>
       <c r="B299" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C299" t="s">
         <v>12</v>
@@ -11396,10 +11392,10 @@
         <v>16</v>
       </c>
       <c r="H299" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I299" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J299" t="n">
         <v>1</v>
@@ -11410,7 +11406,7 @@
         <v>25</v>
       </c>
       <c r="B300" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C300" t="s">
         <v>12</v>
@@ -11428,10 +11424,10 @@
         <v>16</v>
       </c>
       <c r="H300" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I300" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J300" t="n">
         <v>1</v>
@@ -11442,7 +11438,7 @@
         <v>25</v>
       </c>
       <c r="B301" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C301" t="s">
         <v>12</v>
@@ -11460,10 +11456,10 @@
         <v>16</v>
       </c>
       <c r="H301" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I301" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J301" t="n">
         <v>1</v>
@@ -11474,7 +11470,7 @@
         <v>25</v>
       </c>
       <c r="B302" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C302" t="s">
         <v>12</v>
@@ -11492,10 +11488,10 @@
         <v>16</v>
       </c>
       <c r="H302" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I302" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J302" t="n">
         <v>1</v>
@@ -11506,7 +11502,7 @@
         <v>25</v>
       </c>
       <c r="B303" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C303" t="s">
         <v>12</v>
@@ -11524,10 +11520,10 @@
         <v>16</v>
       </c>
       <c r="H303" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I303" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J303" t="n">
         <v>1</v>
@@ -11538,7 +11534,7 @@
         <v>25</v>
       </c>
       <c r="B304" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C304" t="s">
         <v>12</v>
@@ -11556,10 +11552,10 @@
         <v>16</v>
       </c>
       <c r="H304" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I304" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -11570,7 +11566,7 @@
         <v>25</v>
       </c>
       <c r="B305" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C305" t="s">
         <v>12</v>
@@ -11588,10 +11584,10 @@
         <v>16</v>
       </c>
       <c r="H305" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I305" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="J305" t="n">
         <v>1</v>
@@ -11602,7 +11598,7 @@
         <v>25</v>
       </c>
       <c r="B306" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C306" t="s">
         <v>12</v>
@@ -11620,10 +11616,10 @@
         <v>16</v>
       </c>
       <c r="H306" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I306" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="J306" t="n">
         <v>1</v>
@@ -11634,7 +11630,7 @@
         <v>25</v>
       </c>
       <c r="B307" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C307" t="s">
         <v>12</v>
@@ -11652,10 +11648,10 @@
         <v>16</v>
       </c>
       <c r="H307" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I307" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J307" t="n">
         <v>1</v>
@@ -11666,7 +11662,7 @@
         <v>25</v>
       </c>
       <c r="B308" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C308" t="s">
         <v>12</v>
@@ -11678,16 +11674,16 @@
         <v>20</v>
       </c>
       <c r="F308" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="G308" t="s">
         <v>16</v>
       </c>
       <c r="H308" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I308" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="J308" t="n">
         <v>1</v>
@@ -11716,7 +11712,7 @@
         <v>16</v>
       </c>
       <c r="H309" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I309" t="s">
         <v>76</v>
@@ -11727,10 +11723,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B310" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C310" t="s">
         <v>12</v>
@@ -11742,7 +11738,7 @@
         <v>20</v>
       </c>
       <c r="F310" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="G310" t="s">
         <v>16</v>
@@ -11751,7 +11747,7 @@
         <v>328</v>
       </c>
       <c r="I310" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="J310" t="n">
         <v>1</v>
@@ -11762,7 +11758,7 @@
         <v>73</v>
       </c>
       <c r="B311" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="C311" t="s">
         <v>12</v>
@@ -11783,7 +11779,7 @@
         <v>330</v>
       </c>
       <c r="I311" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="J311" t="n">
         <v>1</v>
@@ -11794,7 +11790,7 @@
         <v>73</v>
       </c>
       <c r="B312" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C312" t="s">
         <v>12</v>
@@ -11806,16 +11802,16 @@
         <v>20</v>
       </c>
       <c r="F312" t="s">
+        <v>329</v>
+      </c>
+      <c r="G312" t="s">
+        <v>16</v>
+      </c>
+      <c r="H312" t="s">
         <v>331</v>
       </c>
-      <c r="G312" t="s">
-        <v>16</v>
-      </c>
-      <c r="H312" t="s">
-        <v>332</v>
-      </c>
       <c r="I312" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J312" t="n">
         <v>1</v>
@@ -11826,7 +11822,7 @@
         <v>73</v>
       </c>
       <c r="B313" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="C313" t="s">
         <v>12</v>
@@ -11838,16 +11834,16 @@
         <v>20</v>
       </c>
       <c r="F313" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="G313" t="s">
         <v>16</v>
       </c>
       <c r="H313" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I313" t="s">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="J313" t="n">
         <v>1</v>
@@ -11876,7 +11872,7 @@
         <v>16</v>
       </c>
       <c r="H314" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I314" t="s">
         <v>103</v>
@@ -11887,10 +11883,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B315" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C315" t="s">
         <v>12</v>
@@ -11908,10 +11904,10 @@
         <v>16</v>
       </c>
       <c r="H315" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I315" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="J315" t="n">
         <v>1</v>
@@ -11919,10 +11915,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B316" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C316" t="s">
         <v>12</v>
@@ -11931,10 +11927,10 @@
         <v>13</v>
       </c>
       <c r="E316" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="G316" t="s">
         <v>16</v>
@@ -11943,7 +11939,7 @@
         <v>336</v>
       </c>
       <c r="I316" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="J316" t="n">
         <v>1</v>
@@ -11966,13 +11962,13 @@
         <v>14</v>
       </c>
       <c r="F317" t="s">
+        <v>335</v>
+      </c>
+      <c r="G317" t="s">
+        <v>16</v>
+      </c>
+      <c r="H317" t="s">
         <v>337</v>
-      </c>
-      <c r="G317" t="s">
-        <v>16</v>
-      </c>
-      <c r="H317" t="s">
-        <v>338</v>
       </c>
       <c r="I317" t="s">
         <v>103</v>
@@ -11998,13 +11994,13 @@
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G318" t="s">
         <v>16</v>
       </c>
       <c r="H318" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I318" t="s">
         <v>103</v>
@@ -12030,13 +12026,13 @@
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G319" t="s">
         <v>16</v>
       </c>
       <c r="H319" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I319" t="s">
         <v>103</v>
@@ -12062,13 +12058,13 @@
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G320" t="s">
         <v>16</v>
       </c>
       <c r="H320" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I320" t="s">
         <v>103</v>
@@ -12094,13 +12090,13 @@
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G321" t="s">
         <v>16</v>
       </c>
       <c r="H321" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I321" t="s">
         <v>103</v>
@@ -12126,13 +12122,13 @@
         <v>14</v>
       </c>
       <c r="F322" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G322" t="s">
         <v>16</v>
       </c>
       <c r="H322" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I322" t="s">
         <v>103</v>
@@ -12155,10 +12151,10 @@
         <v>13</v>
       </c>
       <c r="E323" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F323" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G323" t="s">
         <v>16</v>
@@ -12190,13 +12186,13 @@
         <v>20</v>
       </c>
       <c r="F324" t="s">
+        <v>343</v>
+      </c>
+      <c r="G324" t="s">
+        <v>16</v>
+      </c>
+      <c r="H324" t="s">
         <v>345</v>
-      </c>
-      <c r="G324" t="s">
-        <v>16</v>
-      </c>
-      <c r="H324" t="s">
-        <v>346</v>
       </c>
       <c r="I324" t="s">
         <v>103</v>
@@ -12222,13 +12218,13 @@
         <v>20</v>
       </c>
       <c r="F325" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G325" t="s">
         <v>16</v>
       </c>
       <c r="H325" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I325" t="s">
         <v>103</v>
@@ -12254,13 +12250,13 @@
         <v>20</v>
       </c>
       <c r="F326" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G326" t="s">
         <v>16</v>
       </c>
       <c r="H326" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I326" t="s">
         <v>103</v>
@@ -12286,13 +12282,13 @@
         <v>20</v>
       </c>
       <c r="F327" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G327" t="s">
         <v>16</v>
       </c>
       <c r="H327" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I327" t="s">
         <v>103</v>
@@ -12303,10 +12299,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B328" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C328" t="s">
         <v>12</v>
@@ -12315,19 +12311,19 @@
         <v>13</v>
       </c>
       <c r="E328" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>345</v>
+        <v>26</v>
       </c>
       <c r="G328" t="s">
         <v>16</v>
       </c>
       <c r="H328" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I328" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="J328" t="n">
         <v>1</v>
@@ -12335,10 +12331,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B329" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="C329" t="s">
         <v>12</v>
@@ -12347,16 +12343,16 @@
         <v>13</v>
       </c>
       <c r="E329" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F329" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="G329" t="s">
         <v>16</v>
       </c>
       <c r="H329" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I329" t="s">
         <v>76</v>
@@ -12367,10 +12363,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="B330" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C330" t="s">
         <v>12</v>
@@ -12379,19 +12375,19 @@
         <v>13</v>
       </c>
       <c r="E330" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="F330" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G330" t="s">
         <v>16</v>
       </c>
       <c r="H330" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I330" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="J330" t="n">
         <v>1</v>
@@ -12399,22 +12395,22 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
+        <v>353</v>
+      </c>
+      <c r="B331" t="s">
+        <v>354</v>
+      </c>
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" t="s">
         <v>355</v>
       </c>
-      <c r="B331" t="s">
+      <c r="F331" t="s">
         <v>356</v>
-      </c>
-      <c r="C331" t="s">
-        <v>12</v>
-      </c>
-      <c r="D331" t="s">
-        <v>13</v>
-      </c>
-      <c r="E331" t="s">
-        <v>357</v>
-      </c>
-      <c r="F331" t="s">
-        <v>358</v>
       </c>
       <c r="G331" t="s">
         <v>16</v>
@@ -12423,7 +12419,7 @@
         <v>359</v>
       </c>
       <c r="I331" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J331" t="n">
         <v>1</v>
@@ -12431,31 +12427,31 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
+        <v>353</v>
+      </c>
+      <c r="B332" t="s">
+        <v>354</v>
+      </c>
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" t="s">
         <v>355</v>
       </c>
-      <c r="B332" t="s">
+      <c r="F332" t="s">
         <v>356</v>
       </c>
-      <c r="C332" t="s">
-        <v>12</v>
-      </c>
-      <c r="D332" t="s">
-        <v>13</v>
-      </c>
-      <c r="E332" t="s">
-        <v>357</v>
-      </c>
-      <c r="F332" t="s">
+      <c r="G332" t="s">
+        <v>16</v>
+      </c>
+      <c r="H332" t="s">
+        <v>360</v>
+      </c>
+      <c r="I332" t="s">
         <v>358</v>
-      </c>
-      <c r="G332" t="s">
-        <v>16</v>
-      </c>
-      <c r="H332" t="s">
-        <v>361</v>
-      </c>
-      <c r="I332" t="s">
-        <v>360</v>
       </c>
       <c r="J332" t="n">
         <v>1</v>
@@ -12463,22 +12459,22 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
+        <v>353</v>
+      </c>
+      <c r="B333" t="s">
+        <v>361</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" t="s">
         <v>355</v>
       </c>
-      <c r="B333" t="s">
+      <c r="F333" t="s">
         <v>356</v>
-      </c>
-      <c r="C333" t="s">
-        <v>12</v>
-      </c>
-      <c r="D333" t="s">
-        <v>13</v>
-      </c>
-      <c r="E333" t="s">
-        <v>357</v>
-      </c>
-      <c r="F333" t="s">
-        <v>358</v>
       </c>
       <c r="G333" t="s">
         <v>16</v>
@@ -12487,7 +12483,7 @@
         <v>362</v>
       </c>
       <c r="I333" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J333" t="n">
         <v>1</v>
@@ -12495,22 +12491,22 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
+        <v>353</v>
+      </c>
+      <c r="B334" t="s">
+        <v>361</v>
+      </c>
+      <c r="C334" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" t="s">
+        <v>13</v>
+      </c>
+      <c r="E334" t="s">
         <v>355</v>
       </c>
-      <c r="B334" t="s">
-        <v>363</v>
-      </c>
-      <c r="C334" t="s">
-        <v>12</v>
-      </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="E334" t="s">
-        <v>357</v>
-      </c>
       <c r="F334" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G334" t="s">
         <v>16</v>
@@ -12519,7 +12515,7 @@
         <v>364</v>
       </c>
       <c r="I334" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J334" t="n">
         <v>1</v>
@@ -12527,31 +12523,31 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
+        <v>73</v>
+      </c>
+      <c r="B335" t="s">
+        <v>365</v>
+      </c>
+      <c r="C335" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" t="s">
         <v>355</v>
       </c>
-      <c r="B335" t="s">
-        <v>363</v>
-      </c>
-      <c r="C335" t="s">
-        <v>12</v>
-      </c>
-      <c r="D335" t="s">
-        <v>13</v>
-      </c>
-      <c r="E335" t="s">
-        <v>357</v>
-      </c>
       <c r="F335" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G335" t="s">
         <v>16</v>
       </c>
       <c r="H335" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I335" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J335" t="n">
         <v>1</v>
@@ -12562,7 +12558,7 @@
         <v>73</v>
       </c>
       <c r="B336" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C336" t="s">
         <v>12</v>
@@ -12571,19 +12567,19 @@
         <v>13</v>
       </c>
       <c r="E336" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F336" t="s">
+        <v>369</v>
+      </c>
+      <c r="G336" t="s">
+        <v>16</v>
+      </c>
+      <c r="H336" t="s">
+        <v>370</v>
+      </c>
+      <c r="I336" t="s">
         <v>368</v>
-      </c>
-      <c r="G336" t="s">
-        <v>16</v>
-      </c>
-      <c r="H336" t="s">
-        <v>369</v>
-      </c>
-      <c r="I336" t="s">
-        <v>370</v>
       </c>
       <c r="J336" t="n">
         <v>1</v>
@@ -12594,7 +12590,7 @@
         <v>73</v>
       </c>
       <c r="B337" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C337" t="s">
         <v>12</v>
@@ -12603,19 +12599,19 @@
         <v>13</v>
       </c>
       <c r="E337" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F337" t="s">
+        <v>369</v>
+      </c>
+      <c r="G337" t="s">
+        <v>16</v>
+      </c>
+      <c r="H337" t="s">
         <v>371</v>
       </c>
-      <c r="G337" t="s">
-        <v>16</v>
-      </c>
-      <c r="H337" t="s">
-        <v>372</v>
-      </c>
       <c r="I337" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J337" t="n">
         <v>1</v>
@@ -12626,7 +12622,7 @@
         <v>73</v>
       </c>
       <c r="B338" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C338" t="s">
         <v>12</v>
@@ -12635,19 +12631,19 @@
         <v>13</v>
       </c>
       <c r="E338" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F338" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G338" t="s">
         <v>16</v>
       </c>
       <c r="H338" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I338" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J338" t="n">
         <v>1</v>
@@ -12655,10 +12651,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="B339" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C339" t="s">
         <v>12</v>
@@ -12667,53 +12663,21 @@
         <v>13</v>
       </c>
       <c r="E339" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F339" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G339" t="s">
         <v>16</v>
       </c>
       <c r="H339" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I339" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="J339" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>375</v>
-      </c>
-      <c r="B340" t="s">
-        <v>376</v>
-      </c>
-      <c r="C340" t="s">
-        <v>12</v>
-      </c>
-      <c r="D340" t="s">
-        <v>13</v>
-      </c>
-      <c r="E340" t="s">
-        <v>357</v>
-      </c>
-      <c r="F340" t="s">
-        <v>368</v>
-      </c>
-      <c r="G340" t="s">
-        <v>16</v>
-      </c>
-      <c r="H340" t="s">
-        <v>377</v>
-      </c>
-      <c r="I340" t="s">
-        <v>378</v>
-      </c>
-      <c r="J340" t="n">
         <v>1</v>
       </c>
     </row>
